--- a/data2/meaTable.xlsx
+++ b/data2/meaTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alo1\Documents\GitHub\meaR\muna-disentanglement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianlo/Documents/GitHub/meaR/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07734B2-11E6-994C-81BD-704D395DFFDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="148">
   <si>
     <t>genotype</t>
   </si>
@@ -466,13 +467,16 @@
   </si>
   <si>
     <t>variable noise</t>
+  </si>
+  <si>
+    <t>fileName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +493,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -514,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -523,6 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,24 +815,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -833,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -854,7 +869,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -874,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="H2" t="s">
         <v>111</v>
@@ -886,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -906,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="H3" t="s">
         <v>118</v>
@@ -918,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -938,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="H4" t="s">
         <v>117</v>
@@ -947,7 +962,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -967,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>52</v>
+        <v>3120</v>
       </c>
       <c r="H5" t="s">
         <v>126</v>
@@ -976,7 +991,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -996,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>114</v>
@@ -1005,7 +1020,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1025,13 +1040,13 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1051,10 +1066,10 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1074,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="G9">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>131</v>
@@ -1083,7 +1098,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1102,8 +1117,11 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G10" s="6">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1123,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="H11" t="s">
         <v>133</v>
@@ -1132,7 +1150,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1152,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <v>53</v>
+        <v>3180</v>
       </c>
       <c r="H12" t="s">
         <v>134</v>
@@ -1161,7 +1179,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1181,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>53</v>
+        <v>3180</v>
       </c>
       <c r="H13" t="s">
         <v>135</v>
@@ -1190,7 +1208,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1210,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="G14">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="H14" t="s">
         <v>136</v>
@@ -1219,7 +1237,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1239,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="G15">
-        <v>46</v>
+        <v>2640</v>
       </c>
       <c r="H15" t="s">
         <v>112</v>
@@ -1248,7 +1266,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1267,6 +1285,9 @@
       <c r="F16" t="s">
         <v>14</v>
       </c>
+      <c r="G16" s="6">
+        <v>3000</v>
+      </c>
       <c r="H16" t="s">
         <v>115</v>
       </c>
@@ -1274,7 +1295,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11</v>
       </c>
@@ -1294,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="G17">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="H17" t="s">
         <v>137</v>
@@ -1303,7 +1324,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1323,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="G18">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="I18" t="s">
         <v>114</v>
@@ -1332,7 +1353,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1352,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="G19">
-        <v>62</v>
+        <v>3720</v>
       </c>
       <c r="I19" t="s">
         <v>114</v>
@@ -1361,7 +1382,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1381,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>120</v>
@@ -1393,7 +1414,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13</v>
       </c>
@@ -1413,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>122</v>
@@ -1425,7 +1446,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1445,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="G22">
-        <v>27</v>
+        <v>1620</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>143</v>
@@ -1457,7 +1478,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14</v>
       </c>
@@ -1477,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="G23">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>122</v>
@@ -1489,7 +1510,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1509,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>124</v>
@@ -1521,7 +1542,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1541,7 +1562,7 @@
         <v>14</v>
       </c>
       <c r="G25">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>146</v>
@@ -1550,7 +1571,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>15</v>
       </c>
@@ -1570,7 +1591,7 @@
         <v>14</v>
       </c>
       <c r="G26">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>145</v>
@@ -1582,26 +1603,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1630,7 +1651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1659,7 +1680,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
